--- a/biology/Zoologie/Echinothuriacea/Echinothuriacea.xlsx
+++ b/biology/Zoologie/Echinothuriacea/Echinothuriacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinothuriacea sont un super-ordre d'oursins aulodontes primitifs, au sein de la sous-classe des oursins modernes (Euechinoidea).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le super-ordre des Echinothuriacea a été créé en 1982 par la biologiste Margit Jensen (d) et complété, en 2018, par Nicolás Mongiardino Koch (d), Simon E. Coppard (d), Harilaos A. Lessios (d), Derek Briggs, Rich Mooi (d) et Greg W. Rouse (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le super-ordre des Echinothuriacea a été créé en 1982 par la biologiste Margit Jensen (d) et complété, en 2018, par Nicolás Mongiardino Koch (d), Simon E. Coppard (d), Harilaos A. Lessios (d), Derek Briggs, Rich Mooi (d) et Greg W. Rouse (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 avril 2022)[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 avril 2022) : 
 ordre Aspidodiadematoida Kroh &amp; Smith, 2010 — deux familles actuelles
 ordre Echinothurioida Claus, 1880 — trois familles (« oursins de cuir »)
 ordre Pedinoida Mortensen, 1939 — une famille
